--- a/Document/KetQuaTest/FixBug.xlsx
+++ b/Document/KetQuaTest/FixBug.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>STT</t>
   </si>
@@ -43,10 +43,39 @@
     <t>Người xử lý</t>
   </si>
   <si>
-    <t>Hưng</t>
-  </si>
-  <si>
     <t>FixBug EOFFICE</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Mã hóa password</t>
+  </si>
+  <si>
+    <t>minhhv</t>
+  </si>
+  <si>
+    <t>hungpv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cập nhật UserInfo </t>
+  </si>
+  <si>
+    <t>Chưa cập nhật được</t>
+  </si>
+  <si>
+    <t>Lọc danh bạ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khi nhập từ khóa chọn tiêu chí là tất cả ko ra được kết quả. Nên chọn trước một tiêu chí tìm kiếm
+</t>
+  </si>
+  <si>
+    <t>Khi phân trang chưa giữ lại được các điều kiện lọc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mỗi khi lấy dữ liệu về từ query string cần chọn những item tương ứng
+</t>
   </si>
 </sst>
 </file>
@@ -411,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -425,15 +454,15 @@
     <col min="4" max="4" width="14.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5">
+    <row r="1" spans="1:5" ht="28.5">
       <c r="A1" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1">
+    <row r="2" spans="1:5" s="5" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,8 +475,11 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -455,10 +487,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -469,10 +501,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -480,7 +512,60 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Document/KetQuaTest/FixBug.xlsx
+++ b/Document/KetQuaTest/FixBug.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>STT</t>
   </si>
@@ -61,9 +61,6 @@
     <t xml:space="preserve">Cập nhật UserInfo </t>
   </si>
   <si>
-    <t>Chưa cập nhật được</t>
-  </si>
-  <si>
     <t>Lọc danh bạ</t>
   </si>
   <si>
@@ -76,13 +73,44 @@
   <si>
     <t xml:space="preserve">Mỗi khi lấy dữ liệu về từ query string cần chọn những item tương ứng
 </t>
+  </si>
+  <si>
+    <t>Chọn hiển thị số kết quả rồi chưa ra dữ liệu</t>
+  </si>
+  <si>
+    <t>Chưa cập nhật được giới tính</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sau khi thông báo xóa thành công nhóm danh bạ thao tác tiếp theo cần ẩn đi thông báo
+</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo quản lý nhóm danh bạ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link thêm mới nhóm công việc khi thêm mới công việc
+</t>
+  </si>
+  <si>
+    <t>Click vào giao việc bị lỗi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ảnh mô tả </t>
+  </si>
+  <si>
+    <t>Form xử lý công việc</t>
+  </si>
+  <si>
+    <t>1. Nếu người thực hiện chưa có nội dung xử lý thì bind nội dung xử lý là rỗng
+2. Sắp xếp xử lý theo thời gian gần nhất
+3. Load tất cả các file đính kèm của các lần xử lý</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,13 +133,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,10 +164,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -146,8 +191,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -440,16 +495,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="2" customWidth="1"/>
   </cols>
@@ -522,7 +577,7 @@
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -534,9 +589,9 @@
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -545,10 +600,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -559,21 +614,91 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="105">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="D15" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Document/KetQuaTest/FixBug.xlsx
+++ b/Document/KetQuaTest/FixBug.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>STT</t>
   </si>
@@ -104,6 +104,16 @@
     <t>1. Nếu người thực hiện chưa có nội dung xử lý thì bind nội dung xử lý là rỗng
 2. Sắp xếp xử lý theo thời gian gần nhất
 3. Load tất cả các file đính kèm của các lần xử lý</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Thêm details liên hệ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không xóa user khi còn liên quan nhận việc, lịch họp…
+</t>
   </si>
 </sst>
 </file>
@@ -188,17 +198,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -495,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -507,15 +517,16 @@
     <col min="2" max="2" width="39.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1">
       <c r="A2" s="1" t="s">
@@ -530,7 +541,7 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -544,6 +555,9 @@
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="45">
       <c r="A4" s="2">
@@ -558,6 +572,9 @@
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
@@ -569,6 +586,9 @@
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
@@ -577,7 +597,7 @@
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -591,7 +611,7 @@
       <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -608,6 +628,9 @@
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="60">
       <c r="A9" s="2">
@@ -666,7 +689,7 @@
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -688,7 +711,26 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="D15" s="9"/>
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Document/KetQuaTest/FixBug.xlsx
+++ b/Document/KetQuaTest/FixBug.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>STT</t>
   </si>
@@ -113,6 +113,13 @@
   </si>
   <si>
     <t xml:space="preserve">Không xóa user khi còn liên quan nhận việc, lịch họp…
+</t>
+  </si>
+  <si>
+    <t>Giao việc khi tạo mới công việc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tạo mới công việc ấn giao việc phải lưu công việc và gán cho người thực hiện luôn
 </t>
   </si>
 </sst>
@@ -505,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -730,6 +737,25 @@
       </c>
       <c r="D16" s="7" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="60">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
